--- a/biology/Zoologie/Gambelia_sila/Gambelia_sila.xlsx
+++ b/biology/Zoologie/Gambelia_sila/Gambelia_sila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gambelia sila est une espèce de sauriens de la famille des Crotaphytidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gambelia sila est une espèce de sauriens de la famille des Crotaphytidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Californie aux États-Unis[1]. Elle se rencontre dans la Vallée de San Joaquin.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Californie aux États-Unis. Elle se rencontre dans la Vallée de San Joaquin.
 Son nom vernaculaire en anglais est blunt-nosed leopard lizard (signifiant littéralement « lézard-léopard à nez plat »).
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stejneger, 1890 : Results of a biological survey of the San Francisco Mountain region and Desert of the Little Colorado, Arizona. Part V. Annotated list of reptiles and batrachians collected by Dr. C. Hart Merriam and Vernon Bailey on the San Francisco Mountain Plateau and Desert of the Little Colorado, Arizona, with descriptions of new Species. North American Fauna, no 3, p. 103-118 (texte intégral).</t>
         </is>
